--- a/Di_Plast_Database.xlsx
+++ b/Di_Plast_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skznet-my.sharepoint.com/personal/c_kugler_skz_de/Documents/Projekte/Repos/Grunemann/Di-Cision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skznet-my.sharepoint.com/personal/t_grunemann_skz_de/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{4E6D6E0B-1C59-4BFB-8B43-7B84163324B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{6644BED1-A87C-4B8C-A3F4-753826C0166F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B17D0B5-1948-438C-B38F-4727E7F2A1C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2760" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$235</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="175">
   <si>
     <t>Process</t>
   </si>
@@ -961,11 +961,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B251" sqref="B251"/>
+      <selection pane="bottomLeft" activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1508,7 +1508,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>63</v>
@@ -1554,25 +1554,34 @@
         <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
@@ -1586,34 +1595,34 @@
         <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>98</v>
       </c>
@@ -1627,36 +1636,27 @@
         <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>63</v>
@@ -1668,22 +1668,31 @@
         <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1700,31 +1709,31 @@
         <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1741,31 +1750,22 @@
         <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1805,7 +1805,7 @@
         <v>107</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>64</v>
@@ -1814,22 +1814,31 @@
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1846,31 +1855,22 @@
         <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1887,30 +1887,39 @@
         <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>64</v>
@@ -1960,34 +1969,34 @@
         <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>119</v>
       </c>
@@ -2001,54 +2010,45 @@
         <v>65</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>23</v>
@@ -2062,25 +2062,25 @@
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>23</v>
@@ -2093,67 +2093,85 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>112</v>
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>112</v>
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2161,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>55</v>
@@ -2202,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>55</v>
@@ -2238,12 +2256,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>55</v>
@@ -2252,39 +2270,30 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>55</v>
@@ -2293,31 +2302,22 @@
         <v>32</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2334,22 +2334,31 @@
         <v>32</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2366,22 +2375,31 @@
         <v>32</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2392,37 +2410,28 @@
         <v>112</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2433,101 +2442,110 @@
         <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
+      </c>
+      <c r="K41" t="s">
+        <v>139</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2535,40 +2553,40 @@
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s">
-        <v>139</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L43" t="s">
+        <v>129</v>
+      </c>
+      <c r="M43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2576,40 +2594,40 @@
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K44" t="s">
+        <v>139</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2617,122 +2635,122 @@
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K45" t="s">
-        <v>132</v>
-      </c>
-      <c r="L45" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M45" t="s">
-        <v>127</v>
+      <c r="M45" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s">
-        <v>139</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L46" t="s">
+        <v>129</v>
+      </c>
+      <c r="M46" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K47" t="s">
+        <v>139</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2740,40 +2758,40 @@
         <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K48" t="s">
-        <v>132</v>
-      </c>
-      <c r="L48" t="s">
+        <v>126</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M48" t="s">
-        <v>127</v>
+      <c r="M48" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2781,7 +2799,7 @@
         <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
@@ -2822,7 +2840,7 @@
         <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
@@ -2860,84 +2878,84 @@
     </row>
     <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K51" t="s">
-        <v>139</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L51" t="s">
+        <v>129</v>
+      </c>
+      <c r="M51" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K52" t="s">
+        <v>139</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2945,40 +2963,40 @@
         <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K53" t="s">
-        <v>132</v>
-      </c>
-      <c r="L53" t="s">
+        <v>126</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M53" t="s">
-        <v>127</v>
+      <c r="M53" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2986,7 +3004,7 @@
         <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
@@ -3027,7 +3045,7 @@
         <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
@@ -3065,166 +3083,166 @@
     </row>
     <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K56" t="s">
-        <v>139</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L56" t="s">
+        <v>129</v>
+      </c>
+      <c r="M56" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K57" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57" t="s">
         <v>129</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>125</v>
+      <c r="M57" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K58" t="s">
-        <v>132</v>
-      </c>
-      <c r="L58" t="s">
+        <v>126</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M58" t="s">
-        <v>127</v>
+      <c r="M58" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K59" t="s">
-        <v>132</v>
-      </c>
-      <c r="L59" t="s">
-        <v>129</v>
-      </c>
-      <c r="M59" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3232,16 +3250,16 @@
         <v>2</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>31</v>
@@ -3273,45 +3291,45 @@
         <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
+      </c>
+      <c r="K61" t="s">
+        <v>139</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>66</v>
@@ -3352,7 +3370,7 @@
     </row>
     <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>66</v>
@@ -3402,39 +3420,30 @@
         <v>32</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>66</v>
@@ -3443,39 +3452,39 @@
         <v>32</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K65" t="s">
-        <v>139</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>66</v>
@@ -3484,25 +3493,34 @@
         <v>32</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
+      </c>
+      <c r="K66" t="s">
+        <v>139</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3516,10 +3534,10 @@
         <v>32</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>31</v>
@@ -3557,115 +3575,115 @@
         <v>32</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K68" t="s">
-        <v>139</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>123</v>
+        <v>146</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>63</v>
+      <c r="B71" t="s">
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>24</v>
@@ -3702,11 +3720,11 @@
       </c>
     </row>
     <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>63</v>
+      <c r="B72" t="s">
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>24</v>
@@ -3747,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>24</v>
@@ -3788,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>24</v>
@@ -3825,11 +3843,11 @@
       </c>
     </row>
     <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B75" t="s">
-        <v>56</v>
+      <c r="B75" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>24</v>
@@ -3866,11 +3884,11 @@
       </c>
     </row>
     <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B76" t="s">
-        <v>56</v>
+      <c r="B76" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>24</v>
@@ -3911,7 +3929,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
@@ -3920,31 +3938,22 @@
         <v>25</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3952,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>24</v>
@@ -3961,39 +3970,30 @@
         <v>25</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>24</v>
@@ -4002,30 +4002,39 @@
         <v>25</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>24</v>
@@ -4034,22 +4043,31 @@
         <v>25</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -4057,7 +4075,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>24</v>
@@ -4098,7 +4116,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>24</v>
@@ -4134,12 +4152,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>24</v>
@@ -4148,39 +4166,30 @@
         <v>25</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>24</v>
@@ -4189,39 +4198,39 @@
         <v>25</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>24</v>
@@ -4230,30 +4239,39 @@
         <v>25</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>24</v>
@@ -4262,22 +4280,31 @@
         <v>25</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -4285,7 +4312,7 @@
         <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>24</v>
@@ -4294,39 +4321,39 @@
         <v>25</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
@@ -4335,39 +4362,39 @@
         <v>25</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>24</v>
@@ -4376,36 +4403,36 @@
         <v>25</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>59</v>
@@ -4417,31 +4444,31 @@
         <v>25</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -4449,7 +4476,7 @@
         <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>24</v>
@@ -4458,39 +4485,39 @@
         <v>25</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>24</v>
@@ -4499,39 +4526,39 @@
         <v>25</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>24</v>
@@ -4540,36 +4567,36 @@
         <v>25</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>59</v>
@@ -4581,31 +4608,31 @@
         <v>25</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -4613,7 +4640,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>24</v>
@@ -4622,34 +4649,34 @@
         <v>25</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>119</v>
       </c>
@@ -4663,171 +4690,165 @@
         <v>25</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="K97" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
+      </c>
+      <c r="K98" t="s">
+        <v>132</v>
+      </c>
+      <c r="L98" t="s">
+        <v>129</v>
+      </c>
+      <c r="M98" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
+      </c>
+      <c r="K99" t="s">
+        <v>139</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>23</v>
@@ -4835,89 +4856,98 @@
       <c r="J100" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="K100" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="K101" t="s">
-        <v>159</v>
+        <v>132</v>
+      </c>
+      <c r="L101" t="s">
+        <v>129</v>
+      </c>
+      <c r="M101" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K102" t="s">
-        <v>132</v>
-      </c>
-      <c r="L102" t="s">
-        <v>129</v>
-      </c>
-      <c r="M102" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>10</v>
@@ -4932,7 +4962,7 @@
         <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>140</v>
@@ -4955,37 +4985,34 @@
     </row>
     <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="K104" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -4993,89 +5020,83 @@
         <v>81</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>132</v>
-      </c>
-      <c r="L105" t="s">
-        <v>129</v>
-      </c>
-      <c r="M105" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K106" t="s">
-        <v>139</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L106" t="s">
+        <v>129</v>
+      </c>
+      <c r="M106" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
@@ -5113,28 +5134,28 @@
     </row>
     <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>23</v>
@@ -5142,89 +5163,89 @@
       <c r="J108" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="K108" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="K109" t="s">
-        <v>159</v>
+        <v>132</v>
+      </c>
+      <c r="L109" t="s">
+        <v>129</v>
+      </c>
+      <c r="M109" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K110" t="s">
-        <v>132</v>
-      </c>
-      <c r="L110" t="s">
-        <v>129</v>
-      </c>
-      <c r="M110" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
@@ -5233,39 +5254,30 @@
         <v>16</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K111" t="s">
-        <v>139</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
@@ -5277,27 +5289,17 @@
         <v>21</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K112" t="s">
-        <v>159</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>84</v>
@@ -5309,16 +5311,16 @@
         <v>11</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>130</v>
@@ -5338,10 +5340,10 @@
     </row>
     <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
@@ -5353,27 +5355,20 @@
         <v>17</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>10</v>
@@ -5402,10 +5397,10 @@
     </row>
     <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
@@ -5427,130 +5422,171 @@
     </row>
     <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K117" t="s">
-        <v>132</v>
-      </c>
-      <c r="L117" t="s">
-        <v>129</v>
-      </c>
-      <c r="M117" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K118" t="s">
+        <v>139</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K120" t="s">
+        <v>139</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M120" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>28</v>
@@ -5559,7 +5595,7 @@
         <v>43</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>17</v>
@@ -5591,7 +5627,7 @@
     </row>
     <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>28</v>
@@ -5603,36 +5639,36 @@
         <v>44</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K122" t="s">
-        <v>139</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>28</v>
@@ -5641,39 +5677,39 @@
         <v>43</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K123" t="s">
+        <v>139</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>28</v>
@@ -5682,7 +5718,7 @@
         <v>43</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>17</v>
@@ -5714,7 +5750,7 @@
     </row>
     <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>28</v>
@@ -5726,36 +5762,36 @@
         <v>44</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K125" t="s">
-        <v>139</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>28</v>
@@ -5796,7 +5832,7 @@
     </row>
     <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>28</v>
@@ -5805,203 +5841,191 @@
         <v>43</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K127" t="s">
-        <v>139</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K128" t="s">
-        <v>139</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M128" s="3" t="s">
-        <v>142</v>
+        <v>23</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K129" s="3" t="s">
-        <v>123</v>
+        <v>146</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M131" s="3" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>73</v>
@@ -6010,33 +6034,39 @@
         <v>74</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>73</v>
@@ -6048,36 +6078,36 @@
         <v>25</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L133" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>73</v>
@@ -6086,39 +6116,33 @@
         <v>74</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L134" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M134" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>73</v>
@@ -6127,33 +6151,39 @@
         <v>74</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>73</v>
@@ -6165,36 +6195,36 @@
         <v>25</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>73</v>
@@ -6203,39 +6233,33 @@
         <v>74</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M137" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>73</v>
@@ -6244,33 +6268,39 @@
         <v>74</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>73</v>
@@ -6282,276 +6312,282 @@
         <v>25</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L139" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>155</v>
+        <v>123</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>28</v>
@@ -6592,7 +6628,7 @@
     </row>
     <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>28</v>
@@ -6633,7 +6669,7 @@
     </row>
     <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>28</v>
@@ -6674,7 +6710,7 @@
     </row>
     <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>28</v>
@@ -6715,7 +6751,7 @@
     </row>
     <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>28</v>
@@ -6756,7 +6792,7 @@
     </row>
     <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>28</v>
@@ -6797,13 +6833,13 @@
     </row>
     <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>32</v>
@@ -6838,54 +6874,54 @@
     </row>
     <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K153" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L153" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K153" t="s">
+        <v>139</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>32</v>
@@ -6920,48 +6956,48 @@
     </row>
     <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K155" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L155" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K155" t="s">
+        <v>139</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>28</v>
@@ -7002,7 +7038,7 @@
     </row>
     <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>28</v>
@@ -7043,7 +7079,7 @@
     </row>
     <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>28</v>
@@ -7084,7 +7120,7 @@
     </row>
     <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>28</v>
@@ -7093,408 +7129,408 @@
         <v>48</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K159" t="s">
-        <v>139</v>
-      </c>
-      <c r="L159" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L160" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K161" t="s">
-        <v>139</v>
+        <v>158</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>123</v>
+        <v>146</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K163" s="3" t="s">
-        <v>123</v>
+        <v>146</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>155</v>
+        <v>123</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K166" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L166" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+      <c r="K166" t="s">
+        <v>139</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K168" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L168" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+      <c r="K168" t="s">
+        <v>139</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>28</v>
@@ -7535,7 +7571,7 @@
     </row>
     <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>28</v>
@@ -7576,7 +7612,7 @@
     </row>
     <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>28</v>
@@ -7617,7 +7653,7 @@
     </row>
     <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>28</v>
@@ -7626,75 +7662,66 @@
         <v>47</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K172" t="s">
-        <v>139</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K173" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L173" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M173" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -7702,226 +7729,235 @@
         <v>98</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K174" t="s">
-        <v>139</v>
-      </c>
-      <c r="L174" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M174" s="3" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K175" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L175" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M175" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L176" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M176" s="3" t="s">
         <v>125</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M176" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J177" s="2" t="s">
-        <v>23</v>
+        <v>150</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K177" t="s">
+        <v>147</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>23</v>
+        <v>122</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M178" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>23</v>
+        <v>150</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K179" t="s">
+        <v>147</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>36</v>
@@ -7959,10 +7995,10 @@
     </row>
     <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>36</v>
@@ -8000,10 +8036,10 @@
     </row>
     <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>36</v>
@@ -8041,10 +8077,10 @@
     </row>
     <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>36</v>
@@ -8082,7 +8118,7 @@
     </row>
     <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>28</v>
@@ -8123,7 +8159,7 @@
     </row>
     <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>28</v>
@@ -8164,7 +8200,7 @@
     </row>
     <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>33</v>
@@ -8205,7 +8241,7 @@
     </row>
     <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>33</v>
@@ -8246,7 +8282,7 @@
     </row>
     <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>28</v>
@@ -8287,7 +8323,7 @@
     </row>
     <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>28</v>
@@ -8328,10 +8364,10 @@
     </row>
     <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>36</v>
@@ -8369,10 +8405,10 @@
     </row>
     <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>36</v>
@@ -8410,171 +8446,171 @@
     </row>
     <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I192" s="2" t="s">
         <v>124</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K192" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
+      </c>
+      <c r="K192" t="s">
+        <v>139</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M192" t="s">
-        <v>121</v>
+      <c r="M192" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J193" s="4" t="s">
-        <v>152</v>
+        <v>124</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="K193" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H194" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J194" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I194" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="K194" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M194" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="L194" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M194" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>152</v>
+        <v>124</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="K195" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>33</v>
@@ -8583,7 +8619,7 @@
         <v>163</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>17</v>
@@ -8615,7 +8651,7 @@
     </row>
     <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>33</v>
@@ -8624,39 +8660,39 @@
         <v>163</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K197" t="s">
-        <v>139</v>
-      </c>
-      <c r="L197" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>33</v>
@@ -8665,39 +8701,39 @@
         <v>163</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K198" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L198" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K198" t="s">
+        <v>139</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>33</v>
@@ -8706,7 +8742,7 @@
         <v>163</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>17</v>
@@ -8738,7 +8774,7 @@
     </row>
     <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>33</v>
@@ -8750,113 +8786,113 @@
         <v>44</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K200" t="s">
-        <v>139</v>
-      </c>
-      <c r="L200" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K201" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L201" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K201" t="s">
+        <v>132</v>
+      </c>
+      <c r="L201" t="s">
         <v>129</v>
       </c>
-      <c r="M201" s="3" t="s">
-        <v>125</v>
+      <c r="M201" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K202" t="s">
-        <v>139</v>
-      </c>
-      <c r="L202" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M202" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L202" t="s">
+        <v>129</v>
+      </c>
+      <c r="M202" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -8864,89 +8900,89 @@
         <v>98</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K203" t="s">
-        <v>139</v>
-      </c>
-      <c r="L203" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M203" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L203" t="s">
+        <v>129</v>
+      </c>
+      <c r="M203" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K204" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L204" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K204" t="s">
+        <v>132</v>
+      </c>
+      <c r="L204" t="s">
         <v>129</v>
       </c>
-      <c r="M204" s="3" t="s">
-        <v>125</v>
+      <c r="M204" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>57</v>
@@ -8955,13 +8991,13 @@
         <v>44</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H205" s="2" t="s">
         <v>131</v>
@@ -8983,181 +9019,181 @@
       </c>
     </row>
     <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>44</v>
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
+        <v>49</v>
+      </c>
+      <c r="C206" t="s">
+        <v>50</v>
+      </c>
+      <c r="D206" t="s">
+        <v>51</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K206" t="s">
-        <v>132</v>
-      </c>
-      <c r="L206" t="s">
+        <v>126</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L206" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M206" t="s">
-        <v>127</v>
+      <c r="M206" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>44</v>
+      <c r="A207" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>49</v>
+      </c>
+      <c r="C207" t="s">
+        <v>50</v>
+      </c>
+      <c r="D207" t="s">
+        <v>52</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K207" t="s">
-        <v>132</v>
-      </c>
-      <c r="L207" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M207" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K208" t="s">
-        <v>132</v>
-      </c>
-      <c r="L208" t="s">
-        <v>129</v>
-      </c>
-      <c r="M208" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K209" t="s">
-        <v>132</v>
-      </c>
-      <c r="L209" t="s">
+        <v>126</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L209" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M209" t="s">
-        <v>127</v>
+      <c r="M209" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+      <c r="A210" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B210" t="s">
-        <v>49</v>
-      </c>
-      <c r="C210" t="s">
-        <v>50</v>
-      </c>
-      <c r="D210" t="s">
-        <v>51</v>
+      <c r="B210" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>30</v>
@@ -9188,49 +9224,49 @@
       </c>
     </row>
     <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>2</v>
-      </c>
-      <c r="B211" t="s">
-        <v>49</v>
-      </c>
-      <c r="C211" t="s">
-        <v>50</v>
-      </c>
-      <c r="D211" t="s">
-        <v>52</v>
+      <c r="A211" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>124</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K211" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
+      </c>
+      <c r="K211" t="s">
+        <v>139</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M211" t="s">
-        <v>121</v>
+      <c r="M211" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>28</v>
@@ -9242,36 +9278,36 @@
         <v>16</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K212" t="s">
-        <v>139</v>
-      </c>
-      <c r="L212" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L212" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>28</v>
@@ -9280,7 +9316,7 @@
         <v>29</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>30</v>
@@ -9312,7 +9348,7 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>28</v>
@@ -9321,39 +9357,39 @@
         <v>29</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K214" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L214" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K214" t="s">
+        <v>139</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>28</v>
@@ -9365,36 +9401,36 @@
         <v>16</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K215" t="s">
-        <v>139</v>
-      </c>
-      <c r="L215" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L215" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>28</v>
@@ -9403,7 +9439,7 @@
         <v>29</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>30</v>
@@ -9435,7 +9471,7 @@
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>28</v>
@@ -9444,7 +9480,7 @@
         <v>29</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>30</v>
@@ -9476,7 +9512,7 @@
     </row>
     <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>28</v>
@@ -9485,39 +9521,39 @@
         <v>29</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K218" t="s">
-        <v>139</v>
-      </c>
-      <c r="L218" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L218" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>28</v>
@@ -9558,7 +9594,7 @@
     </row>
     <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>28</v>
@@ -9605,37 +9641,37 @@
         <v>28</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K221" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L221" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M221" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="M221" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -9643,174 +9679,174 @@
         <v>107</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K222" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M222" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="M222" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K223" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M223" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K224" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="K224" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L224" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M224" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K225" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L225" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M225" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>32</v>
@@ -9845,89 +9881,89 @@
     </row>
     <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K227" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L227" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M227" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K228" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L228" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M228" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>59</v>
@@ -9939,7 +9975,7 @@
         <v>32</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>31</v>
@@ -9968,7 +10004,7 @@
     </row>
     <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>59</v>
@@ -9980,36 +10016,36 @@
         <v>32</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K230" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L230" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M230" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>59</v>
@@ -10050,7 +10086,7 @@
     </row>
     <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>59</v>
@@ -10091,7 +10127,7 @@
     </row>
     <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>59</v>
@@ -10132,7 +10168,7 @@
     </row>
     <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>59</v>
@@ -10173,7 +10209,7 @@
     </row>
     <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>59</v>
@@ -10212,193 +10248,36 @@
         <v>125</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H236" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I236" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J236" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K236" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L236" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M236" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J237" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K237" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L237" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M237" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I238" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J238" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K238" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L238" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M238" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H239" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I239" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J239" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K239" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L239" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M239" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-    </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M239" xr:uid="{4D6B7D0A-B6C7-4C70-ABFE-593E39907D22}">
+  <autoFilter ref="A1:M235" xr:uid="{4D6B7D0A-B6C7-4C70-ABFE-593E39907D22}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Film blowing"/>
+        <filter val="Extrusion blow molding"/>
+        <filter val="Strech blow moulding"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
+        <filter val="bad surface or holes"/>
         <filter val="bad surface quality"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="roughness/waviness"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Di_Plast_Database.xlsx
+++ b/Di_Plast_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skznet-my.sharepoint.com/personal/t_grunemann_skz_de/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B17D0B5-1948-438C-B38F-4727E7F2A1C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{2B17D0B5-1948-438C-B38F-4727E7F2A1C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC900EA6-54A8-46DA-9CF8-12A0A534FA7C}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2760" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$233</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="175">
   <si>
     <t>Process</t>
   </si>
@@ -961,11 +961,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B246" sqref="B246"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1362,7 +1362,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>63</v>
@@ -1408,22 +1408,31 @@
         <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1440,31 +1449,31 @@
         <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1481,36 +1490,27 @@
         <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>63</v>
@@ -1522,22 +1522,31 @@
         <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1554,31 +1563,31 @@
         <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1595,36 +1604,27 @@
         <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>63</v>
@@ -1636,22 +1636,31 @@
         <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1668,31 +1677,31 @@
         <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1709,31 +1718,22 @@
         <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1773,7 +1773,7 @@
         <v>107</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>64</v>
@@ -1782,22 +1782,31 @@
         <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1814,31 +1823,22 @@
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1855,30 +1855,39 @@
         <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>64</v>
@@ -1928,31 +1937,31 @@
         <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1969,54 +1978,45 @@
         <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>23</v>
@@ -2042,10 +2042,10 @@
         <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
@@ -2061,35 +2061,44 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>112</v>
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2106,7 +2115,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>31</v>
@@ -2138,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>55</v>
@@ -2147,7 +2156,7 @@
         <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>31</v>
@@ -2188,7 +2197,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>31</v>
@@ -2215,12 +2224,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>55</v>
@@ -2229,31 +2238,22 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2302,22 +2302,31 @@
         <v>32</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2334,7 +2343,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>31</v>
@@ -2369,37 +2378,28 @@
         <v>112</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2416,10 +2416,10 @@
         <v>114</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
@@ -2436,34 +2436,43 @@
     </row>
     <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
+      </c>
+      <c r="K40" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2477,34 +2486,34 @@
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" t="s">
-        <v>139</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2512,40 +2521,40 @@
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>125</v>
+      <c r="M42" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2553,40 +2562,40 @@
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K43" t="s">
-        <v>132</v>
-      </c>
-      <c r="L43" t="s">
-        <v>129</v>
-      </c>
-      <c r="M43" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2600,75 +2609,75 @@
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K44" t="s">
-        <v>139</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45" t="s">
         <v>129</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>125</v>
+      <c r="M45" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2676,40 +2685,40 @@
         <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
-      </c>
-      <c r="L46" t="s">
-        <v>129</v>
-      </c>
-      <c r="M46" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2723,34 +2732,34 @@
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K47" t="s">
-        <v>139</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2758,40 +2767,40 @@
         <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K48" t="s">
+        <v>139</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2805,75 +2814,75 @@
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K49" t="s">
-        <v>139</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K50" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50" t="s">
         <v>129</v>
       </c>
-      <c r="M50" s="3" t="s">
-        <v>125</v>
+      <c r="M50" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2881,40 +2890,40 @@
         <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K51" t="s">
-        <v>132</v>
-      </c>
-      <c r="L51" t="s">
-        <v>129</v>
-      </c>
-      <c r="M51" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2928,34 +2937,34 @@
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K52" t="s">
-        <v>139</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -2963,40 +2972,40 @@
         <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K53" t="s">
+        <v>139</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3010,80 +3019,80 @@
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K54" t="s">
-        <v>139</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55" t="s">
         <v>129</v>
       </c>
-      <c r="M55" s="3" t="s">
-        <v>125</v>
+      <c r="M55" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>84</v>
@@ -3095,13 +3104,13 @@
         <v>58</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>131</v>
@@ -3124,43 +3133,43 @@
     </row>
     <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K57" t="s">
-        <v>132</v>
-      </c>
-      <c r="L57" t="s">
+        <v>126</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M57" t="s">
-        <v>127</v>
+      <c r="M57" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3177,31 +3186,31 @@
         <v>70</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3209,40 +3218,40 @@
         <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3256,39 +3265,39 @@
         <v>32</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K60" t="s">
+        <v>139</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>66</v>
@@ -3297,34 +3306,34 @@
         <v>32</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K61" t="s">
-        <v>139</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3338,34 +3347,34 @@
         <v>32</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K62" t="s">
+        <v>139</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3379,39 +3388,30 @@
         <v>32</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K63" t="s">
-        <v>139</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>66</v>
@@ -3420,25 +3420,34 @@
         <v>32</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3452,34 +3461,34 @@
         <v>32</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K65" t="s">
+        <v>139</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3493,34 +3502,34 @@
         <v>32</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K66" t="s">
-        <v>139</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3534,66 +3543,66 @@
         <v>32</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3610,39 +3619,39 @@
         <v>25</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>63</v>
+      <c r="B70" t="s">
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>24</v>
@@ -3651,31 +3660,31 @@
         <v>25</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3692,31 +3701,31 @@
         <v>25</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3724,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>24</v>
@@ -3733,31 +3742,31 @@
         <v>25</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3774,39 +3783,39 @@
         <v>25</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B74" t="s">
-        <v>56</v>
+      <c r="B74" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>24</v>
@@ -3815,31 +3824,31 @@
         <v>25</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3856,39 +3865,39 @@
         <v>25</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>24</v>
@@ -3897,39 +3906,30 @@
         <v>25</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
@@ -3938,30 +3938,39 @@
         <v>25</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>24</v>
@@ -3970,22 +3979,31 @@
         <v>25</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -3993,7 +4011,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>24</v>
@@ -4034,7 +4052,7 @@
         <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>24</v>
@@ -4075,7 +4093,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>24</v>
@@ -4084,39 +4102,30 @@
         <v>25</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>24</v>
@@ -4125,39 +4134,39 @@
         <v>25</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>24</v>
@@ -4166,22 +4175,31 @@
         <v>25</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -4189,7 +4207,7 @@
         <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>24</v>
@@ -4230,7 +4248,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>24</v>
@@ -4268,10 +4286,10 @@
     </row>
     <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>24</v>
@@ -4309,10 +4327,10 @@
     </row>
     <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>24</v>
@@ -4353,7 +4371,7 @@
         <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
@@ -4394,7 +4412,7 @@
         <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>24</v>
@@ -4432,10 +4450,10 @@
     </row>
     <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>24</v>
@@ -4473,10 +4491,10 @@
     </row>
     <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>24</v>
@@ -4517,7 +4535,7 @@
         <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>24</v>
@@ -4558,7 +4576,7 @@
         <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>24</v>
@@ -4599,7 +4617,7 @@
         <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>24</v>
@@ -4608,139 +4626,139 @@
         <v>25</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="K95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
+      </c>
+      <c r="K96" t="s">
+        <v>132</v>
+      </c>
+      <c r="L96" t="s">
+        <v>129</v>
+      </c>
+      <c r="M96" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="K97" t="s">
-        <v>159</v>
+        <v>139</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -4748,116 +4766,116 @@
         <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="K98" t="s">
-        <v>132</v>
-      </c>
-      <c r="L98" t="s">
-        <v>129</v>
-      </c>
-      <c r="M98" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K99" t="s">
-        <v>139</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L99" t="s">
+        <v>129</v>
+      </c>
+      <c r="M99" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="K100" t="s">
-        <v>159</v>
+        <v>139</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -4865,40 +4883,40 @@
         <v>81</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K101" t="s">
-        <v>132</v>
-      </c>
-      <c r="L101" t="s">
-        <v>129</v>
-      </c>
-      <c r="M101" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -4915,31 +4933,22 @@
         <v>16</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K102" t="s">
-        <v>139</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -4947,107 +4956,116 @@
         <v>81</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="K103" t="s">
-        <v>139</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
+      </c>
+      <c r="K104" t="s">
+        <v>132</v>
+      </c>
+      <c r="L104" t="s">
+        <v>129</v>
+      </c>
+      <c r="M104" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="K105" t="s">
-        <v>159</v>
+        <v>139</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -5055,116 +5073,107 @@
         <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="K106" t="s">
-        <v>132</v>
-      </c>
-      <c r="L106" t="s">
-        <v>129</v>
-      </c>
-      <c r="M106" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K107" t="s">
-        <v>139</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M107" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L107" t="s">
+        <v>129</v>
+      </c>
+      <c r="M107" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="K108" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -5172,40 +5181,31 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K109" t="s">
-        <v>132</v>
-      </c>
-      <c r="L109" t="s">
-        <v>129</v>
-      </c>
-      <c r="M109" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -5213,80 +5213,82 @@
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
+      </c>
+      <c r="K111" t="s">
+        <v>132</v>
+      </c>
+      <c r="L111" t="s">
+        <v>129</v>
+      </c>
+      <c r="M111" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>54</v>
@@ -5302,40 +5304,31 @@
         <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K113" t="s">
-        <v>132</v>
-      </c>
-      <c r="L113" t="s">
-        <v>129</v>
-      </c>
-      <c r="M113" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -5343,16 +5336,16 @@
         <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>54</v>
@@ -5365,60 +5358,85 @@
     </row>
     <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
+      </c>
+      <c r="K115" t="s">
+        <v>139</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K116" t="s">
+        <v>139</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
@@ -5431,39 +5449,39 @@
         <v>43</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K117" t="s">
-        <v>139</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>28</v>
@@ -5472,7 +5490,7 @@
         <v>43</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>17</v>
@@ -5504,7 +5522,7 @@
     </row>
     <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>28</v>
@@ -5516,31 +5534,31 @@
         <v>44</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K119" t="s">
+        <v>139</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -5554,39 +5572,39 @@
         <v>43</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K120" t="s">
-        <v>139</v>
-      </c>
-      <c r="L120" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>28</v>
@@ -5595,7 +5613,7 @@
         <v>43</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>17</v>
@@ -5627,7 +5645,7 @@
     </row>
     <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>28</v>
@@ -5639,31 +5657,31 @@
         <v>44</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K122" t="s">
+        <v>139</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -5677,39 +5695,39 @@
         <v>43</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K123" t="s">
-        <v>139</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>28</v>
@@ -5721,36 +5739,36 @@
         <v>44</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K124" t="s">
-        <v>139</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>28</v>
@@ -5791,84 +5809,78 @@
     </row>
     <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M126" s="3" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>123</v>
+        <v>146</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -5882,33 +5894,39 @@
         <v>74</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>73</v>
@@ -5917,39 +5935,33 @@
         <v>74</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M129" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>73</v>
@@ -5961,31 +5973,31 @@
         <v>25</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L130" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -5999,33 +6011,39 @@
         <v>74</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>73</v>
@@ -6034,39 +6052,33 @@
         <v>74</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M132" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>73</v>
@@ -6078,31 +6090,31 @@
         <v>25</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -6116,33 +6128,39 @@
         <v>74</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>73</v>
@@ -6151,39 +6169,33 @@
         <v>74</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L135" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M135" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>73</v>
@@ -6195,31 +6207,31 @@
         <v>25</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L136" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -6233,42 +6245,48 @@
         <v>74</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>6</v>
@@ -6300,43 +6318,43 @@
     </row>
     <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -6344,86 +6362,86 @@
         <v>2</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>28</v>
@@ -6464,7 +6482,7 @@
     </row>
     <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>28</v>
@@ -6505,7 +6523,7 @@
     </row>
     <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>28</v>
@@ -6546,7 +6564,7 @@
     </row>
     <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>28</v>
@@ -6587,7 +6605,7 @@
     </row>
     <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>28</v>
@@ -6628,7 +6646,7 @@
     </row>
     <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>28</v>
@@ -6669,7 +6687,7 @@
     </row>
     <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>28</v>
@@ -6710,7 +6728,7 @@
     </row>
     <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>28</v>
@@ -6751,13 +6769,13 @@
     </row>
     <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>32</v>
@@ -6792,48 +6810,48 @@
     </row>
     <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K151" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L151" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K151" t="s">
+        <v>139</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>28</v>
@@ -6874,7 +6892,7 @@
     </row>
     <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>28</v>
@@ -6915,7 +6933,7 @@
     </row>
     <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>28</v>
@@ -6956,7 +6974,7 @@
     </row>
     <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>28</v>
@@ -6997,7 +7015,7 @@
     </row>
     <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>28</v>
@@ -7038,7 +7056,7 @@
     </row>
     <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>28</v>
@@ -7047,203 +7065,203 @@
         <v>48</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K157" t="s">
-        <v>139</v>
-      </c>
-      <c r="L157" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L158" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L159" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K160" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L160" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K161" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L161" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>82</v>
@@ -7284,89 +7302,89 @@
     </row>
     <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K163" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K164" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L164" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+      <c r="K164" t="s">
+        <v>139</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>28</v>
@@ -7407,7 +7425,7 @@
     </row>
     <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>28</v>
@@ -7448,7 +7466,7 @@
     </row>
     <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>28</v>
@@ -7489,7 +7507,7 @@
     </row>
     <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>28</v>
@@ -7530,7 +7548,7 @@
     </row>
     <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>28</v>
@@ -7571,7 +7589,7 @@
     </row>
     <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>28</v>
@@ -7580,121 +7598,103 @@
         <v>47</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K170" t="s">
-        <v>139</v>
-      </c>
-      <c r="L170" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L171" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M171" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L172" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M172" s="3" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>93</v>
@@ -7706,10 +7706,10 @@
         <v>95</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>14</v>
@@ -7726,66 +7726,84 @@
     </row>
     <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>23</v>
+        <v>122</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M174" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>23</v>
+        <v>150</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K175" t="s">
+        <v>147</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -7793,7 +7811,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>36</v>
@@ -7834,7 +7852,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>36</v>
@@ -7872,7 +7890,7 @@
     </row>
     <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>28</v>
@@ -7913,7 +7931,7 @@
     </row>
     <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>28</v>
@@ -7957,7 +7975,7 @@
         <v>81</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>36</v>
@@ -7998,7 +8016,7 @@
         <v>81</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>36</v>
@@ -8036,10 +8054,10 @@
     </row>
     <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>36</v>
@@ -8077,10 +8095,10 @@
     </row>
     <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>36</v>
@@ -8121,7 +8139,7 @@
         <v>98</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>36</v>
@@ -8162,7 +8180,7 @@
         <v>98</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>36</v>
@@ -8200,10 +8218,10 @@
     </row>
     <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>36</v>
@@ -8241,10 +8259,10 @@
     </row>
     <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>36</v>
@@ -8282,7 +8300,7 @@
     </row>
     <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>28</v>
@@ -8323,7 +8341,7 @@
     </row>
     <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>28</v>
@@ -8364,84 +8382,84 @@
     </row>
     <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>124</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
+      </c>
+      <c r="K190" t="s">
+        <v>139</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M190" t="s">
-        <v>121</v>
+      <c r="M190" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>152</v>
+        <v>124</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="K191" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -8455,39 +8473,39 @@
         <v>163</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K192" t="s">
-        <v>139</v>
-      </c>
-      <c r="L192" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>33</v>
@@ -8496,7 +8514,7 @@
         <v>163</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>17</v>
@@ -8528,7 +8546,7 @@
     </row>
     <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>33</v>
@@ -8537,34 +8555,34 @@
         <v>163</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K194" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L194" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K194" t="s">
+        <v>139</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -8578,39 +8596,39 @@
         <v>163</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K195" t="s">
-        <v>139</v>
-      </c>
-      <c r="L195" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>33</v>
@@ -8619,7 +8637,7 @@
         <v>163</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>17</v>
@@ -8651,7 +8669,7 @@
     </row>
     <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>33</v>
@@ -8663,31 +8681,31 @@
         <v>44</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K197" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L197" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K197" t="s">
+        <v>139</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -8701,124 +8719,124 @@
         <v>163</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K198" t="s">
-        <v>139</v>
-      </c>
-      <c r="L198" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K199" t="s">
-        <v>139</v>
-      </c>
-      <c r="L199" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M199" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L199" t="s">
+        <v>129</v>
+      </c>
+      <c r="M199" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I200" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K200" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L200" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K200" t="s">
+        <v>132</v>
+      </c>
+      <c r="L200" t="s">
         <v>129</v>
       </c>
-      <c r="M200" s="3" t="s">
-        <v>125</v>
+      <c r="M200" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>57</v>
@@ -8856,7 +8874,7 @@
     </row>
     <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>84</v>
@@ -8897,10 +8915,10 @@
     </row>
     <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>57</v>
@@ -8909,13 +8927,13 @@
         <v>44</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>131</v>
@@ -8937,167 +8955,167 @@
       </c>
     </row>
     <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>44</v>
+      <c r="A204" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
+        <v>49</v>
+      </c>
+      <c r="C204" t="s">
+        <v>50</v>
+      </c>
+      <c r="D204" t="s">
+        <v>51</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K204" t="s">
-        <v>132</v>
-      </c>
-      <c r="L204" t="s">
+        <v>126</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L204" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M204" t="s">
-        <v>127</v>
+      <c r="M204" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>44</v>
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>49</v>
+      </c>
+      <c r="C205" t="s">
+        <v>50</v>
+      </c>
+      <c r="D205" t="s">
+        <v>52</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M205" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H205" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I205" s="2" t="s">
+      <c r="H206" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K206" t="s">
+        <v>139</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I207" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K205" t="s">
-        <v>132</v>
-      </c>
-      <c r="L205" t="s">
+      <c r="J207" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L207" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M205" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>2</v>
-      </c>
-      <c r="B206" t="s">
-        <v>49</v>
-      </c>
-      <c r="C206" t="s">
-        <v>50</v>
-      </c>
-      <c r="D206" t="s">
-        <v>51</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J206" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K206" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L206" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M206" s="3" t="s">
+      <c r="M207" s="3" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" t="s">
-        <v>49</v>
-      </c>
-      <c r="C207" t="s">
-        <v>50</v>
-      </c>
-      <c r="D207" t="s">
-        <v>52</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K207" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L207" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M207" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -9111,39 +9129,39 @@
         <v>29</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K208" t="s">
-        <v>139</v>
-      </c>
-      <c r="L208" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L208" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>28</v>
@@ -9155,36 +9173,36 @@
         <v>16</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K209" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L209" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K209" t="s">
+        <v>139</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>28</v>
@@ -9193,7 +9211,7 @@
         <v>29</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>30</v>
@@ -9234,39 +9252,39 @@
         <v>29</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K211" t="s">
-        <v>139</v>
-      </c>
-      <c r="L211" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L211" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>28</v>
@@ -9278,36 +9296,36 @@
         <v>16</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K212" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L212" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="K212" t="s">
+        <v>139</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>28</v>
@@ -9316,7 +9334,7 @@
         <v>29</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>30</v>
@@ -9357,39 +9375,39 @@
         <v>29</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K214" t="s">
-        <v>139</v>
-      </c>
-      <c r="L214" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L214" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>28</v>
@@ -9430,7 +9448,7 @@
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>28</v>
@@ -9471,7 +9489,7 @@
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>28</v>
@@ -9512,7 +9530,7 @@
     </row>
     <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>28</v>
@@ -9553,84 +9571,84 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K219" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M219" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="M219" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K220" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M220" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="M220" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
@@ -9641,10 +9659,10 @@
         <v>28</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>61</v>
@@ -9682,10 +9700,10 @@
         <v>117</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>61</v>
@@ -9717,57 +9735,57 @@
     </row>
     <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K223" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M223" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>61</v>
@@ -9811,7 +9829,7 @@
         <v>32</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>31</v>
@@ -9840,7 +9858,7 @@
     </row>
     <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>59</v>
@@ -9852,36 +9870,36 @@
         <v>32</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K226" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L226" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M226" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>59</v>
@@ -9922,7 +9940,7 @@
     </row>
     <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>59</v>
@@ -9963,7 +9981,7 @@
     </row>
     <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>59</v>
@@ -10004,7 +10022,7 @@
     </row>
     <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>59</v>
@@ -10045,7 +10063,7 @@
     </row>
     <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>59</v>
@@ -10086,7 +10104,7 @@
     </row>
     <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>59</v>
@@ -10127,7 +10145,7 @@
     </row>
     <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>59</v>
@@ -10166,107 +10184,24 @@
         <v>125</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H234" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I234" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J234" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K234" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L234" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M234" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I235" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J235" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K235" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L235" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M235" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M235" xr:uid="{4D6B7D0A-B6C7-4C70-ABFE-593E39907D22}">
+  <autoFilter ref="A1:M233" xr:uid="{4D6B7D0A-B6C7-4C70-ABFE-593E39907D22}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Extrusion blow molding"/>
-        <filter val="Strech blow moulding"/>
+        <filter val="Extrusion"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
